--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelSingleItemRenderTest/TestRenderSingleItemVerticalNoShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelSingleItemRenderTest/TestRenderSingleItemVerticalNoShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -23,6 +23,12 @@
   </x:si>
   <x:si>
     <x:t>15_345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
   </x:si>
   <x:si>
     <x:t>String parameter</x:t>
@@ -407,7 +413,7 @@
       <x:c r="C2" s="1">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>278.8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
@@ -418,14 +424,14 @@
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>345</x:v>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>0</x:v>
